--- a/Selenium_Project/instagram_Accounts.xlsx
+++ b/Selenium_Project/instagram_Accounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Web_Automation\Selenium_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A472DF6B-45D7-42FF-BAB6-E9ECEBFC79B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0FE9C-3BB7-4852-9D67-FB2CABD2BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E7716A8-2C9A-4A0F-8A8B-7E82D59ACC5E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="167">
   <si>
     <t>Username: jess.icachurchill820cbp</t>
   </si>
@@ -972,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CADC4B2-18EF-49B4-94AF-0791802B48D5}">
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1344,7 +1344,9 @@
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1381,7 +1383,9 @@
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1418,7 +1422,9 @@
       <c r="A58" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1447,7 +1453,9 @@
       <c r="E62" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1481,7 +1489,9 @@
       <c r="E67" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -1551,6 +1561,7 @@
       <c r="E77" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="F77" s="9"/>
       <c r="G77" s="1" t="s">
         <v>160</v>
       </c>
@@ -1625,6 +1636,7 @@
       <c r="A88" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="E88" s="9"/>
       <c r="F88" s="1" t="s">
         <v>162</v>
       </c>
@@ -1656,10 +1668,14 @@
       <c r="E92" s="7" t="s">
         <v>134</v>
       </c>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,10 +1705,14 @@
       <c r="E97" s="7" t="s">
         <v>135</v>
       </c>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,6 +1742,7 @@
       <c r="E102" s="7" t="s">
         <v>136</v>
       </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="1" t="s">
         <v>161</v>
       </c>
